--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/REFrameworkNET5/StudioTemplates/REFramework/contentFiles/any/any/pt2/VisualBasic/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chame\Documents\UiPath\KRS_Data_Scraper\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127947CB-7D8B-4121-BEF1-9054F58978FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>ProcessABCQueue</t>
+  </si>
+  <si>
+    <t>KRSExcelFilePath</t>
+  </si>
+  <si>
+    <t>Data\Input\Input.xlsx</t>
   </si>
 </sst>
 </file>
@@ -212,10 +218,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -223,7 +229,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -239,9 +245,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -279,7 +285,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -385,7 +391,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -527,7 +533,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -537,16 +543,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -594,7 +600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -604,7 +610,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -616,7 +622,14 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1623,12 +1636,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1665,7 +1678,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1790,7 +1803,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2782,14 +2795,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chame\Documents\UiPath\KRS_Data_Scraper\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127947CB-7D8B-4121-BEF1-9054F58978FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7532E234-1DE4-44D3-B877-BE2EA3B2DF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>Data\Input\Input.xlsx</t>
+  </si>
+  <si>
+    <t>KRSFinalExcelFilePath</t>
+  </si>
+  <si>
+    <t>Data\Output\Output_data.xlsx</t>
+  </si>
+  <si>
+    <t>KRSBaseRequestUrl</t>
+  </si>
+  <si>
+    <t>https://api-krs.ms.gov.pl/api/krs/OdpisAktualny/{krs}?rejestr=P&amp;format=json</t>
   </si>
 </sst>
 </file>
@@ -217,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -227,6 +239,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -544,13 +557,13 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="2" max="2" width="74.140625" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -630,9 +643,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1633,7 +1660,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1683,7 +1710,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
@@ -1694,7 +1721,7 @@
         <v>33</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>41</v>
@@ -1808,7 +1835,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>42</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chame\Documents\UiPath\KRS_Data_Scraper\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7532E234-1DE4-44D3-B877-BE2EA3B2DF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CDC1B8-C426-4D77-87B3-81375C7B01E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="1950" windowWidth="25575" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>https://api-krs.ms.gov.pl/api/krs/OdpisAktualny/{krs}?rejestr=P&amp;format=json</t>
+  </si>
+  <si>
+    <t>https://krz.ms.gov.pl/</t>
+  </si>
+  <si>
+    <t>KRZWebsiteUrl</t>
   </si>
 </sst>
 </file>
@@ -557,7 +563,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -656,11 +662,18 @@
       <c r="A10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chame\Documents\UiPath\KRS_Data_Scraper\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CDC1B8-C426-4D77-87B3-81375C7B01E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60244FED-803D-494B-9338-64E0CCFD0ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1950" windowWidth="25575" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="3450" windowWidth="25575" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -162,18 +162,9 @@
     <t>ProcessABCQueue</t>
   </si>
   <si>
-    <t>KRSExcelFilePath</t>
-  </si>
-  <si>
     <t>Data\Input\Input.xlsx</t>
   </si>
   <si>
-    <t>KRSFinalExcelFilePath</t>
-  </si>
-  <si>
-    <t>Data\Output\Output_data.xlsx</t>
-  </si>
-  <si>
     <t>KRSBaseRequestUrl</t>
   </si>
   <si>
@@ -184,6 +175,15 @@
   </si>
   <si>
     <t>KRZWebsiteUrl</t>
+  </si>
+  <si>
+    <t>InputExcelFilePath</t>
+  </si>
+  <si>
+    <t>BaseFinalExcelFilePath</t>
+  </si>
+  <si>
+    <t>Data\Output\Raport_{data}.xlsx</t>
   </si>
 </sst>
 </file>
@@ -235,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -245,7 +245,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -560,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -643,38 +642,38 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1661,6 +1660,7 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
